--- a/inputs/HydroMonthMap copy.xlsx
+++ b/inputs/HydroMonthMap copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2820" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="6120" yWindow="0" windowWidth="24480" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:L5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
